--- a/input/Samples_Label.xlsx
+++ b/input/Samples_Label.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="1900" yWindow="220" windowWidth="25360" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>stem_6</t>
   </si>
@@ -184,6 +184,51 @@
   </si>
   <si>
     <t>edgeR</t>
+  </si>
+  <si>
+    <t>DS6</t>
+  </si>
+  <si>
+    <t>DF6</t>
+  </si>
+  <si>
+    <t>DL6</t>
+  </si>
+  <si>
+    <t>DS3</t>
+  </si>
+  <si>
+    <t>DL3</t>
+  </si>
+  <si>
+    <t>DR2</t>
+  </si>
+  <si>
+    <t>DS2</t>
+  </si>
+  <si>
+    <t>DF2</t>
+  </si>
+  <si>
+    <t>DL2</t>
+  </si>
+  <si>
+    <t>DR6</t>
+  </si>
+  <si>
+    <t>NF3</t>
+  </si>
+  <si>
+    <t>NF6</t>
+  </si>
+  <si>
+    <t>NR3</t>
+  </si>
+  <si>
+    <t>NR6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2 with adding facility </t>
   </si>
 </sst>
 </file>
@@ -578,18 +623,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="46.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -599,8 +646,11 @@
       <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -610,8 +660,11 @@
       <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -621,8 +674,11 @@
       <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -632,8 +688,11 @@
       <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -643,8 +702,11 @@
       <c r="G5" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -654,8 +716,11 @@
       <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -665,8 +730,11 @@
       <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -676,8 +744,11 @@
       <c r="G8" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -687,8 +758,11 @@
       <c r="G9" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -698,8 +772,11 @@
       <c r="G10" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -709,8 +786,11 @@
       <c r="G11" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -720,8 +800,11 @@
       <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -731,8 +814,11 @@
       <c r="G13" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -742,8 +828,11 @@
       <c r="G14" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -753,8 +842,11 @@
       <c r="G15" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -764,8 +856,11 @@
       <c r="G16" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -775,8 +870,11 @@
       <c r="G17" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -786,8 +884,11 @@
       <c r="G18" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -797,8 +898,11 @@
       <c r="G19" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -808,8 +912,11 @@
       <c r="G20" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -818,6 +925,9 @@
       </c>
       <c r="G21" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
